--- a/src/main/resources/testori.xlsx
+++ b/src/main/resources/testori.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my_file\projects\oexsd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my_file\projects\oexsd\project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACF4FE9-CF42-4B43-8E4A-D14324C9D9B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B26962-458C-4CF6-AF60-33DECFAD5E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>DT_OEXSD_TEST</t>
   </si>
@@ -43,9 +43,6 @@
     <t>SecondString</t>
   </si>
   <si>
-    <t>SecondStringDesc</t>
-  </si>
-  <si>
     <t>SecondStringNoDesc</t>
   </si>
   <si>
@@ -65,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ThirdArray2desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SecondArray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +75,38 @@
   </si>
   <si>
     <t>SecondString2Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondString注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThS注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThA注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdArray2注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -433,7 +458,7 @@
     <col min="6" max="6" width="91.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,81 +466,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
